--- a/Mathes/images/normala.xlsx
+++ b/Mathes/images/normala.xlsx
@@ -14,6 +14,11 @@
   <sheets>
     <sheet name="normala" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v3.0" hidden="1">normala!$B$1:$B$1000</definedName>
+    <definedName name="_xlchart.v3.1" hidden="1">normala!$C$1:$C$1000</definedName>
+    <definedName name="_xlchart.v3.2" hidden="1">normala!$A$1:$A$1000</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -19398,6 +19403,108 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v3.0</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{255FC8BA-7B83-4F83-BE25-7B91CEBD5105}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v3.2</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{A39FE81C-8B09-4C25-9F20-A3E5B9EC065B}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v3.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0"/>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{19B488EC-1CC5-4A8E-B4C7-4BB5289AB3D8}">
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -19479,6 +19586,126 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -21066,6 +21293,1530 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -21174,6 +22925,240 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="5" name="Chart 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE73FF60-FBE6-49E9-8D20-DA6BCE74D3C7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4937760" y="4644390"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="6" name="Chart 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBB1671B-B297-4E78-920C-EA100BB865EB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="182880" y="4629150"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="7" name="Chart 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0612A885-BB01-484E-8784-44A4CA73DB09}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9563100" y="4682490"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -21478,8 +23463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
